--- a/sites/URS_Certifications 17.11.25.xlsx
+++ b/sites/URS_Certifications 17.11.25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F178CA35-0FC4-4B79-A88B-A79363E4072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EF9077B-6F4C-432D-A332-97B71AA5A298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6832" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6842" uniqueCount="838">
   <si>
     <t>Название компании</t>
   </si>
@@ -3399,7 +3399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1427"/>
+  <dimension ref="A1:G1429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:G1048576"/>
@@ -33916,16 +33916,16 @@
         <v>5246002261</v>
       </c>
       <c r="D1418" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="E1418" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F1418" t="s">
         <v>11</v>
       </c>
       <c r="G1418">
-        <v>46634</v>
+        <v>47066</v>
       </c>
     </row>
     <row r="1419" spans="1:7" x14ac:dyDescent="0.3">
@@ -33939,16 +33939,16 @@
         <v>5246002261</v>
       </c>
       <c r="D1419" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E1419" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="F1419" t="s">
         <v>11</v>
       </c>
       <c r="G1419">
-        <v>46634</v>
+        <v>47066</v>
       </c>
     </row>
     <row r="1420" spans="1:7" x14ac:dyDescent="0.3">
@@ -33962,158 +33962,204 @@
         <v>5246002261</v>
       </c>
       <c r="D1420" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E1420" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1420" t="s">
         <v>11</v>
       </c>
       <c r="G1420">
-        <v>45891</v>
+        <v>46634</v>
       </c>
     </row>
     <row r="1421" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1421" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B1421" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1421">
-        <v>5262222391</v>
+        <v>5246002261</v>
       </c>
       <c r="D1421" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E1421" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F1421" t="s">
         <v>11</v>
       </c>
       <c r="G1421">
-        <v>47039</v>
+        <v>46634</v>
       </c>
     </row>
     <row r="1422" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1422" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B1422" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C1422">
-        <v>5262222391</v>
+        <v>5246002261</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>12</v>
       </c>
       <c r="E1422" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F1422" t="s">
         <v>11</v>
+      </c>
+      <c r="G1422">
+        <v>45891</v>
       </c>
     </row>
     <row r="1423" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1423" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B1423" t="s">
         <v>24</v>
       </c>
       <c r="C1423">
-        <v>1834054140</v>
+        <v>5262222391</v>
       </c>
       <c r="D1423" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E1423" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F1423" t="s">
         <v>11</v>
       </c>
       <c r="G1423">
-        <v>45960</v>
+        <v>47039</v>
       </c>
     </row>
     <row r="1424" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1424" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1424" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1424">
+        <v>5262222391</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1425" t="s">
+        <v>833</v>
+      </c>
+      <c r="B1425" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1425">
+        <v>1834054140</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1425">
+        <v>45960</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1426" t="s">
         <v>834</v>
       </c>
-      <c r="B1424" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1424">
+      <c r="B1426" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1426">
         <v>1615012203</v>
       </c>
-      <c r="D1424" t="s">
+      <c r="D1426" t="s">
         <v>41</v>
       </c>
-      <c r="E1424" t="s">
+      <c r="E1426" t="s">
         <v>66</v>
       </c>
-      <c r="F1424" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1425" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1425" t="s">
+      <c r="F1426" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1427" t="s">
         <v>835</v>
       </c>
-      <c r="B1425" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1425">
+      <c r="B1427" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1427">
         <v>6662112620</v>
       </c>
-      <c r="D1425" t="s">
+      <c r="D1427" t="s">
         <v>18</v>
       </c>
-      <c r="E1425" t="s">
+      <c r="E1427" t="s">
         <v>294</v>
       </c>
-      <c r="F1425" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1426" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1426" t="s">
+      <c r="F1427" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1428" t="s">
         <v>836</v>
       </c>
-      <c r="B1426" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1426">
+      <c r="B1428" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1428">
         <v>7806591143</v>
       </c>
-      <c r="D1426" t="s">
+      <c r="D1428" t="s">
         <v>79</v>
       </c>
-      <c r="E1426" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1426" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="1427" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1427" t="s">
+      <c r="E1428" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1429" t="s">
         <v>837</v>
       </c>
-      <c r="B1427" t="s">
+      <c r="B1429" t="s">
         <v>778</v>
       </c>
-      <c r="C1427">
+      <c r="C1429">
         <v>301938570</v>
       </c>
-      <c r="D1427" t="s">
+      <c r="D1429" t="s">
         <v>41</v>
       </c>
-      <c r="E1427" t="s">
+      <c r="E1429" t="s">
         <v>27</v>
       </c>
-      <c r="F1427" t="s">
+      <c r="F1429" t="s">
         <v>325</v>
       </c>
     </row>
